--- a/Result Template of Summary Stocklist.xlsx
+++ b/Result Template of Summary Stocklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinsella/Library/Mobile Documents/com~apple~CloudDocs/Bowdoin/testNestifly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9321960A-42F5-B941-9334-B9F136243345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C529E8-6EA6-2244-9DD6-F76E3FEDA255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{2A4A2CE3-434B-664D-9F15-B0333DED67DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{2A4A2CE3-434B-664D-9F15-B0333DED67DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,22 +60,6 @@
 (Pass / Fail)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;1 year in market 
-(Pass / Fail) </t>
-  </si>
-  <si>
-    <t>PF&amp;REIT 
-(Pass / Fail)</t>
-  </si>
-  <si>
-    <t>IFF 
-(Pass / Fail)</t>
-  </si>
-  <si>
-    <t>ETFs 
-(Pass / Fail)</t>
-  </si>
-  <si>
     <t>Liquidity test 
 (Pass / Fail)</t>
   </si>
@@ -112,6 +96,22 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1 year in market 
+(Yes / No) </t>
+  </si>
+  <si>
+    <t>PF&amp;REIT 
+(Yes / No)</t>
+  </si>
+  <si>
+    <t>IFF 
+(Yes / No)</t>
+  </si>
+  <si>
+    <t>ETFs 
+(Yes / No)</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -626,10 +626,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -652,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>2</v>
@@ -685,19 +685,19 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
